--- a/presupuesto proyecto.xlsx
+++ b/presupuesto proyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Sena\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5A240-0E55-488E-9502-46E7C38BD965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4830234-7279-4160-96A5-F59C95E9D215}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50CFB81A-6E44-4C1B-9B24-09E3B0C7A424}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>PRESUPUESTO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Componente</t>
   </si>
@@ -130,6 +127,30 @@
   </si>
   <si>
     <t>20% Ganancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORME DE COSTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servidor </t>
+  </si>
+  <si>
+    <t>Mes 9</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Servidor Proxi</t>
+  </si>
+  <si>
+    <t>Arquitectura de Red</t>
+  </si>
+  <si>
+    <t>Balanceador de Carga</t>
+  </si>
+  <si>
+    <t>Lector de Chip</t>
   </si>
 </sst>
 </file>
@@ -219,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +313,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -346,17 +373,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -413,11 +429,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -472,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,12 +542,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,18 +562,15 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,6 +588,39 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,51 +941,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD73CC5-A7F9-40FE-A40F-C9A2B776762B}">
-  <dimension ref="A2:L37"/>
+  <dimension ref="A2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -921,78 +1000,84 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
@@ -1010,29 +1095,32 @@
         <v>64</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1">
-        <f>SUM(B8:I8)</f>
-        <v>342</v>
-      </c>
-      <c r="K8" s="32">
-        <v>6694</v>
-      </c>
-      <c r="L8" s="31">
-        <f>PRODUCT(J8,K8)</f>
-        <v>2289348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="K8" s="1">
+        <f>SUM(B8:J8)</f>
+        <v>514</v>
+      </c>
+      <c r="L8" s="32">
+        <v>6230</v>
+      </c>
+      <c r="M8" s="31">
+        <f>PRODUCT(K8,L8)</f>
+        <v>3202220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>30</v>
@@ -1050,27 +1138,30 @@
         <v>96</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I9" s="1">
-        <v>48</v>
-      </c>
-      <c r="J9" s="38">
-        <f>SUM(B9:I9)</f>
-        <v>370</v>
-      </c>
-      <c r="K9" s="32">
-        <v>6694</v>
-      </c>
-      <c r="L9" s="31">
-        <f>PRODUCT(J9,K9)</f>
-        <v>2476780</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1">
+        <v>70</v>
+      </c>
+      <c r="K9" s="38">
+        <f>SUM(B9:J9)</f>
+        <v>546</v>
+      </c>
+      <c r="L9" s="32">
+        <v>6230</v>
+      </c>
+      <c r="M9" s="31">
+        <f>PRODUCT(K9,L9)</f>
+        <v>3401580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1081,15 +1172,16 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="10">
-        <f>SUM(L8,L9)</f>
-        <v>4766128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K10" s="3"/>
+      <c r="L10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="10">
+        <f>SUM(M8,M9)</f>
+        <v>6603800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1100,10 +1192,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1116,40 +1209,43 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
@@ -1173,23 +1269,26 @@
         <v>16</v>
       </c>
       <c r="I15" s="1">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1">
         <v>48</v>
       </c>
-      <c r="J15" s="1">
-        <f>SUM(B15:I15)</f>
-        <v>342</v>
-      </c>
       <c r="K15" s="1">
+        <f>SUM(B15:J15)</f>
+        <v>362</v>
+      </c>
+      <c r="L15" s="1">
         <v>228</v>
       </c>
-      <c r="L15" s="1">
-        <f>PRODUCT(J15,K15)</f>
-        <v>77976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <f>PRODUCT(K15,L15)</f>
+        <v>82536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>30</v>
@@ -1213,33 +1312,36 @@
         <v>12</v>
       </c>
       <c r="I16" s="1">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1">
         <v>48</v>
       </c>
-      <c r="J16" s="1">
-        <f>SUM(B16:I16)</f>
-        <v>370</v>
-      </c>
-      <c r="K16" s="33">
+      <c r="K16" s="1">
+        <f>SUM(B16:J16)</f>
+        <v>390</v>
+      </c>
+      <c r="L16" s="33">
         <v>246</v>
       </c>
-      <c r="L16" s="33">
-        <f>PRODUCT(J16,K16)</f>
-        <v>91020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="33">
+        <f>PRODUCT(K16,L16)</f>
+        <v>95940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
-      <c r="K17" s="39" t="s">
+      <c r="L17" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="40">
+        <f>SUM(M15:M16)</f>
+        <v>178476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>17</v>
-      </c>
-      <c r="L17" s="40">
-        <f>SUM(L15:L16)</f>
-        <v>168996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>18</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -1252,8 +1354,9 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
       <c r="L19" s="41"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="41"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -1266,10 +1369,11 @@
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="42"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
@@ -1285,19 +1389,22 @@
       <c r="I21" s="6">
         <v>0</v>
       </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -1313,19 +1420,22 @@
       <c r="I22" s="6">
         <v>0</v>
       </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
         <v>1</v>
       </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
@@ -1341,19 +1451,22 @@
       <c r="I23" s="6">
         <v>0</v>
       </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
         <v>1</v>
       </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
@@ -1369,19 +1482,22 @@
       <c r="I24" s="6">
         <v>0</v>
       </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
@@ -1397,19 +1513,22 @@
       <c r="I25" s="6">
         <v>0</v>
       </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
@@ -1425,19 +1544,22 @@
       <c r="I26" s="6">
         <v>0</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -1453,255 +1575,489 @@
       <c r="I27" s="6">
         <v>0</v>
       </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
         <v>1</v>
       </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="55">
+        <v>0</v>
+      </c>
+      <c r="L28" s="54">
+        <v>255850</v>
+      </c>
+      <c r="M28" s="54">
+        <v>255850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="54">
+        <v>11900</v>
+      </c>
+      <c r="M29" s="54">
+        <v>142800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="55">
+        <v>6</v>
+      </c>
+      <c r="L30" s="54">
+        <v>1104360</v>
+      </c>
+      <c r="M30" s="54">
+        <v>6626160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="55">
+        <v>0</v>
+      </c>
+      <c r="L31" s="54">
+        <v>2544592</v>
+      </c>
+      <c r="M31" s="54">
+        <v>2544592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="55">
+        <v>0</v>
+      </c>
+      <c r="L32" s="54">
+        <v>400000</v>
+      </c>
+      <c r="M32" s="54">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="57">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="54">
+        <v>242000</v>
+      </c>
+      <c r="M33" s="54">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="64">
+        <f>SUM(M28,M29:M33)</f>
+        <v>10211402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="44"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B39" s="6">
+        <v>21</v>
+      </c>
+      <c r="C39" s="6">
+        <v>30</v>
+      </c>
+      <c r="D39" s="6">
+        <v>25</v>
+      </c>
+      <c r="E39" s="6">
+        <v>40</v>
+      </c>
+      <c r="F39" s="6">
+        <v>35</v>
+      </c>
+      <c r="G39" s="7">
+        <v>40</v>
+      </c>
+      <c r="H39" s="21">
+        <v>42</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22">
+        <v>37</v>
+      </c>
+      <c r="K39" s="7">
+        <f>SUM(B39:J39)</f>
+        <v>270</v>
+      </c>
+      <c r="L39" s="23">
+        <v>481013</v>
+      </c>
+      <c r="M39" s="22">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="6">
-        <v>21</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="22">
+        <v>1</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22">
+        <v>1</v>
+      </c>
+      <c r="K40" s="7">
+        <v>8</v>
+      </c>
+      <c r="L40" s="23">
+        <v>56000</v>
+      </c>
+      <c r="M40" s="1">
+        <f>PRODUCT(L40,K40)</f>
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="6">
-        <v>25</v>
-      </c>
-      <c r="E31" s="6">
-        <v>40</v>
-      </c>
-      <c r="F31" s="6">
-        <v>35</v>
-      </c>
-      <c r="G31" s="7">
-        <v>40</v>
-      </c>
-      <c r="H31" s="21">
-        <v>42</v>
-      </c>
-      <c r="I31" s="22">
-        <v>37</v>
-      </c>
-      <c r="J31" s="7">
-        <f>SUM(B31:I31)</f>
-        <v>270</v>
-      </c>
-      <c r="K31" s="23">
-        <v>481013</v>
-      </c>
-      <c r="L31" s="22">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="22">
-        <v>1</v>
-      </c>
-      <c r="I32" s="22">
-        <v>1</v>
-      </c>
-      <c r="J32" s="7">
-        <v>8</v>
-      </c>
-      <c r="K32" s="23">
-        <v>56000</v>
-      </c>
-      <c r="L32" s="1">
-        <f>PRODUCT(K32,J32)</f>
-        <v>448000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="22">
+        <v>0</v>
+      </c>
+      <c r="K41" s="24">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
+      <c r="L42" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="24">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="K34" s="27" t="s">
+      <c r="M42" s="25">
+        <f>SUM(M10+M17+M20+M34+M39+M40+M41)</f>
+        <v>17631678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
+      <c r="L43" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L34" s="25">
-        <f>SUM(L15+L20+L31+L32+L33)</f>
-        <v>715976</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="K35" s="26" t="s">
+      <c r="M43" s="22">
+        <f>M42*0.15</f>
+        <v>2644751.6999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="17"/>
+      <c r="L44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="22">
-        <f>L34*0.15</f>
-        <v>107396.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="17"/>
-      <c r="K36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="22">
-        <f>L34*0.2</f>
-        <v>143195.20000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="K37" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="25">
-        <f>SUM(L34:L36)</f>
-        <v>966567.60000000009</v>
+      <c r="M44" s="22">
+        <f>M42*0.2</f>
+        <v>3526335.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="L45" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="25">
+        <f>SUM(M42:M44)</f>
+        <v>23802765.300000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A19:L20"/>
-    <mergeCell ref="A29:L30"/>
-    <mergeCell ref="A2:L3"/>
-    <mergeCell ref="A6:L7"/>
-    <mergeCell ref="A13:L14"/>
+    <mergeCell ref="A19:M20"/>
+    <mergeCell ref="A37:M38"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A6:M7"/>
+    <mergeCell ref="A13:M14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
